--- a/test_speeches/predictions/Speech_1_Obama__AI.xlsx
+++ b/test_speeches/predictions/Speech_1_Obama__AI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,64 +436,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Sentence</t>
+          <t>sentence</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Metaphor/Simile</t>
+          <t>label</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Metaphor/Similie</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Rhetorical questions</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Stories / anecdotes</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Stories/Anecdotes</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Contrasts</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lists / Repetition </t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Moral conviction</t>
+          <t>Lists</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Sentiment of the collective</t>
+          <t>Repetition</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Ambitious goals / Setting high expectations</t>
+          <t>Moral_conviction</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Confidence in goals</t>
+          <t>Sentiment_of_the_collective</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Setting_high_expectations</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Now, our friends at the Republican convention were more than happy to talk about everything they think is wrong with America but they didn't have much to say about how they'd make it right.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
         <v>0</v>
       </c>
@@ -501,13 +502,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,60 +520,66 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>They want your vote, but they don't want you to know their plan.</t>
+          <t>Now, our friends at the Republican convention were more than happy to talk about everything they think is wrong with America but they didn't have much to say about how they'd make it right.</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>And that's because all they have to offer is the same prescription they've had for the last thirty years:</t>
+          <t>They want your vote, but they don't want you to know their plan.</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -581,35 +588,38 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>"Have a surplus?</t>
+          <t>And that's because all they have to offer is the same prescription they've had for the last thirty years:</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -618,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -630,16 +640,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Try a tax cut."</t>
+          <t>"Have a surplus?</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -667,23 +680,26 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>"Deficit too high?</t>
+          <t>Try a tax cut."</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -704,16 +720,19 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Try another."</t>
+          <t>"Deficit too high?</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -741,23 +760,26 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>"Feel a cold coming on?</t>
+          <t>Try another."</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -778,45 +800,91 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>"Feel a cold coming on?</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Take two tax cuts,
 roll back some regulations, and
 call us in the morning!"</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>0</v>
       </c>
     </row>

--- a/test_speeches/predictions/Speech_1_Obama__AI.xlsx
+++ b/test_speeches/predictions/Speech_1_Obama__AI.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Metaphor/Similie</t>
+          <t>Metaphor/Simile</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -456,7 +456,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Stories/Anecdotes</t>
+          <t>Stories / anecdotes</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -466,27 +466,27 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Lists</t>
+          <t xml:space="preserve">Lists / Repetition </t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Repetition</t>
+          <t>Moral conviction</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Moral_conviction</t>
+          <t>Sentiment of the collective</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Sentiment_of_the_collective</t>
+          <t>Ambitious goals / Setting high expectations</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Setting_high_expectations</t>
+          <t>Confidence in goals</t>
         </is>
       </c>
     </row>
